--- a/dist/dataframe2.xlsx
+++ b/dist/dataframe2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2218"/>
+  <dimension ref="A1:J2230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>No Activo</t>
+          <t>Activo</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>104</v>
+        <v>906</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2378,11 +2378,11 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2418,11 +2418,11 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2458,11 +2458,11 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2498,11 +2498,11 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2538,11 +2538,11 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2578,11 +2578,11 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2618,11 +2618,11 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2658,11 +2658,11 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2698,11 +2698,11 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2738,11 +2738,11 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2818,11 +2818,11 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2898,11 +2898,11 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -2938,11 +2938,11 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -2978,11 +2978,11 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3018,11 +3018,11 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3098,11 +3098,11 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3138,11 +3138,11 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3178,11 +3178,11 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>104</v>
+        <v>980</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>No Activo</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -51703,10 +51703,8 @@
       <c r="G1229" t="b">
         <v>0</v>
       </c>
-      <c r="H1229" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1229" t="n">
+        <v>906</v>
       </c>
       <c r="I1229" t="inlineStr">
         <is>
@@ -58297,10 +58295,8 @@
       <c r="G1386" t="b">
         <v>0</v>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>906</v>
       </c>
       <c r="I1386" t="inlineStr">
         <is>
@@ -58309,7 +58305,7 @@
       </c>
       <c r="J1386" t="inlineStr">
         <is>
-          <t>No activo</t>
+          <t>Activo</t>
         </is>
       </c>
     </row>
@@ -59221,10 +59217,8 @@
       <c r="G1408" t="b">
         <v>0</v>
       </c>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>104</v>
       </c>
       <c r="I1408" t="inlineStr">
         <is>
@@ -59263,10 +59257,8 @@
       <c r="G1409" t="b">
         <v>0</v>
       </c>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>969</v>
       </c>
       <c r="I1409" t="inlineStr">
         <is>
@@ -59275,7 +59267,7 @@
       </c>
       <c r="J1409" t="inlineStr">
         <is>
-          <t>No activo</t>
+          <t>No Activo</t>
         </is>
       </c>
     </row>
@@ -66949,10 +66941,8 @@
       <c r="G1592" t="b">
         <v>0</v>
       </c>
-      <c r="H1592" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1592" t="n">
+        <v>904</v>
       </c>
       <c r="I1592" t="inlineStr">
         <is>
@@ -66961,7 +66951,7 @@
       </c>
       <c r="J1592" t="inlineStr">
         <is>
-          <t>No activo</t>
+          <t>No Activo</t>
         </is>
       </c>
     </row>
@@ -75517,10 +75507,8 @@
       <c r="G1796" t="b">
         <v>1</v>
       </c>
-      <c r="H1796" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1796" t="n">
+        <v>917</v>
       </c>
       <c r="I1796" t="inlineStr">
         <is>
@@ -75559,10 +75547,8 @@
       <c r="G1797" t="b">
         <v>1</v>
       </c>
-      <c r="H1797" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1797" t="n">
+        <v>917</v>
       </c>
       <c r="I1797" t="inlineStr">
         <is>
@@ -75601,10 +75587,8 @@
       <c r="G1798" t="b">
         <v>1</v>
       </c>
-      <c r="H1798" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1798" t="n">
+        <v>917</v>
       </c>
       <c r="I1798" t="inlineStr">
         <is>
@@ -75643,10 +75627,8 @@
       <c r="G1799" t="b">
         <v>1</v>
       </c>
-      <c r="H1799" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1799" t="n">
+        <v>917</v>
       </c>
       <c r="I1799" t="inlineStr">
         <is>
@@ -75685,10 +75667,8 @@
       <c r="G1800" t="b">
         <v>1</v>
       </c>
-      <c r="H1800" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1800" t="n">
+        <v>917</v>
       </c>
       <c r="I1800" t="inlineStr">
         <is>
@@ -75727,10 +75707,8 @@
       <c r="G1801" t="b">
         <v>1</v>
       </c>
-      <c r="H1801" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1801" t="n">
+        <v>917</v>
       </c>
       <c r="I1801" t="inlineStr">
         <is>
@@ -75769,10 +75747,8 @@
       <c r="G1802" t="b">
         <v>1</v>
       </c>
-      <c r="H1802" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1802" t="n">
+        <v>917</v>
       </c>
       <c r="I1802" t="inlineStr">
         <is>
@@ -75811,10 +75787,8 @@
       <c r="G1803" t="b">
         <v>1</v>
       </c>
-      <c r="H1803" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1803" t="n">
+        <v>917</v>
       </c>
       <c r="I1803" t="inlineStr">
         <is>
@@ -75853,10 +75827,8 @@
       <c r="G1804" t="b">
         <v>1</v>
       </c>
-      <c r="H1804" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1804" t="n">
+        <v>917</v>
       </c>
       <c r="I1804" t="inlineStr">
         <is>
@@ -75895,10 +75867,8 @@
       <c r="G1805" t="b">
         <v>1</v>
       </c>
-      <c r="H1805" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1805" t="n">
+        <v>917</v>
       </c>
       <c r="I1805" t="inlineStr">
         <is>
@@ -75937,10 +75907,8 @@
       <c r="G1806" t="b">
         <v>1</v>
       </c>
-      <c r="H1806" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1806" t="n">
+        <v>917</v>
       </c>
       <c r="I1806" t="inlineStr">
         <is>
@@ -75979,10 +75947,8 @@
       <c r="G1807" t="b">
         <v>1</v>
       </c>
-      <c r="H1807" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1807" t="n">
+        <v>917</v>
       </c>
       <c r="I1807" t="inlineStr">
         <is>
@@ -76021,10 +75987,8 @@
       <c r="G1808" t="b">
         <v>1</v>
       </c>
-      <c r="H1808" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1808" t="n">
+        <v>917</v>
       </c>
       <c r="I1808" t="inlineStr">
         <is>
@@ -76063,10 +76027,8 @@
       <c r="G1809" t="b">
         <v>1</v>
       </c>
-      <c r="H1809" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1809" t="n">
+        <v>917</v>
       </c>
       <c r="I1809" t="inlineStr">
         <is>
@@ -76105,10 +76067,8 @@
       <c r="G1810" t="b">
         <v>1</v>
       </c>
-      <c r="H1810" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1810" t="n">
+        <v>917</v>
       </c>
       <c r="I1810" t="inlineStr">
         <is>
@@ -76147,10 +76107,8 @@
       <c r="G1811" t="b">
         <v>1</v>
       </c>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1811" t="n">
+        <v>917</v>
       </c>
       <c r="I1811" t="inlineStr">
         <is>
@@ -76189,10 +76147,8 @@
       <c r="G1812" t="b">
         <v>1</v>
       </c>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1812" t="n">
+        <v>917</v>
       </c>
       <c r="I1812" t="inlineStr">
         <is>
@@ -76231,10 +76187,8 @@
       <c r="G1813" t="b">
         <v>1</v>
       </c>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1813" t="n">
+        <v>917</v>
       </c>
       <c r="I1813" t="inlineStr">
         <is>
@@ -76273,10 +76227,8 @@
       <c r="G1814" t="b">
         <v>1</v>
       </c>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1814" t="n">
+        <v>917</v>
       </c>
       <c r="I1814" t="inlineStr">
         <is>
@@ -76315,10 +76267,8 @@
       <c r="G1815" t="b">
         <v>1</v>
       </c>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1815" t="n">
+        <v>917</v>
       </c>
       <c r="I1815" t="inlineStr">
         <is>
@@ -76357,10 +76307,8 @@
       <c r="G1816" t="b">
         <v>1</v>
       </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1816" t="n">
+        <v>917</v>
       </c>
       <c r="I1816" t="inlineStr">
         <is>
@@ -76399,10 +76347,8 @@
       <c r="G1817" t="b">
         <v>1</v>
       </c>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1817" t="n">
+        <v>917</v>
       </c>
       <c r="I1817" t="inlineStr">
         <is>
@@ -76441,10 +76387,8 @@
       <c r="G1818" t="b">
         <v>1</v>
       </c>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1818" t="n">
+        <v>917</v>
       </c>
       <c r="I1818" t="inlineStr">
         <is>
@@ -76483,10 +76427,8 @@
       <c r="G1819" t="b">
         <v>1</v>
       </c>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1819" t="n">
+        <v>917</v>
       </c>
       <c r="I1819" t="inlineStr">
         <is>
@@ -76525,10 +76467,8 @@
       <c r="G1820" t="b">
         <v>1</v>
       </c>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1820" t="n">
+        <v>917</v>
       </c>
       <c r="I1820" t="inlineStr">
         <is>
@@ -76567,10 +76507,8 @@
       <c r="G1821" t="b">
         <v>1</v>
       </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1821" t="n">
+        <v>917</v>
       </c>
       <c r="I1821" t="inlineStr">
         <is>
@@ -76609,10 +76547,8 @@
       <c r="G1822" t="b">
         <v>1</v>
       </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1822" t="n">
+        <v>917</v>
       </c>
       <c r="I1822" t="inlineStr">
         <is>
@@ -76651,10 +76587,8 @@
       <c r="G1823" t="b">
         <v>1</v>
       </c>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1823" t="n">
+        <v>917</v>
       </c>
       <c r="I1823" t="inlineStr">
         <is>
@@ -76693,10 +76627,8 @@
       <c r="G1824" t="b">
         <v>1</v>
       </c>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1824" t="n">
+        <v>917</v>
       </c>
       <c r="I1824" t="inlineStr">
         <is>
@@ -76735,10 +76667,8 @@
       <c r="G1825" t="b">
         <v>1</v>
       </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1825" t="n">
+        <v>917</v>
       </c>
       <c r="I1825" t="inlineStr">
         <is>
@@ -76777,10 +76707,8 @@
       <c r="G1826" t="b">
         <v>1</v>
       </c>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1826" t="n">
+        <v>917</v>
       </c>
       <c r="I1826" t="inlineStr">
         <is>
@@ -76819,10 +76747,8 @@
       <c r="G1827" t="b">
         <v>1</v>
       </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>917</v>
       </c>
       <c r="I1827" t="inlineStr">
         <is>
@@ -76861,10 +76787,8 @@
       <c r="G1828" t="b">
         <v>1</v>
       </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>917</v>
       </c>
       <c r="I1828" t="inlineStr">
         <is>
@@ -76903,10 +76827,8 @@
       <c r="G1829" t="b">
         <v>1</v>
       </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1829" t="n">
+        <v>917</v>
       </c>
       <c r="I1829" t="inlineStr">
         <is>
@@ -76945,10 +76867,8 @@
       <c r="G1830" t="b">
         <v>1</v>
       </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>917</v>
       </c>
       <c r="I1830" t="inlineStr">
         <is>
@@ -76987,10 +76907,8 @@
       <c r="G1831" t="b">
         <v>1</v>
       </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>917</v>
       </c>
       <c r="I1831" t="inlineStr">
         <is>
@@ -77029,10 +76947,8 @@
       <c r="G1832" t="b">
         <v>1</v>
       </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>917</v>
       </c>
       <c r="I1832" t="inlineStr">
         <is>
@@ -77071,10 +76987,8 @@
       <c r="G1833" t="b">
         <v>1</v>
       </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>917</v>
       </c>
       <c r="I1833" t="inlineStr">
         <is>
@@ -77113,10 +77027,8 @@
       <c r="G1834" t="b">
         <v>1</v>
       </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>917</v>
       </c>
       <c r="I1834" t="inlineStr">
         <is>
@@ -77155,10 +77067,8 @@
       <c r="G1835" t="b">
         <v>1</v>
       </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>917</v>
       </c>
       <c r="I1835" t="inlineStr">
         <is>
@@ -77197,10 +77107,8 @@
       <c r="G1836" t="b">
         <v>1</v>
       </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>917</v>
       </c>
       <c r="I1836" t="inlineStr">
         <is>
@@ -77239,10 +77147,8 @@
       <c r="G1837" t="b">
         <v>1</v>
       </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>917</v>
       </c>
       <c r="I1837" t="inlineStr">
         <is>
@@ -77281,10 +77187,8 @@
       <c r="G1838" t="b">
         <v>1</v>
       </c>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>917</v>
       </c>
       <c r="I1838" t="inlineStr">
         <is>
@@ -77323,10 +77227,8 @@
       <c r="G1839" t="b">
         <v>1</v>
       </c>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>917</v>
       </c>
       <c r="I1839" t="inlineStr">
         <is>
@@ -77365,10 +77267,8 @@
       <c r="G1840" t="b">
         <v>1</v>
       </c>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>917</v>
       </c>
       <c r="I1840" t="inlineStr">
         <is>
@@ -77407,10 +77307,8 @@
       <c r="G1841" t="b">
         <v>1</v>
       </c>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>917</v>
       </c>
       <c r="I1841" t="inlineStr">
         <is>
@@ -77449,10 +77347,8 @@
       <c r="G1842" t="b">
         <v>1</v>
       </c>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>917</v>
       </c>
       <c r="I1842" t="inlineStr">
         <is>
@@ -77491,10 +77387,8 @@
       <c r="G1843" t="b">
         <v>1</v>
       </c>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>917</v>
       </c>
       <c r="I1843" t="inlineStr">
         <is>
@@ -77533,10 +77427,8 @@
       <c r="G1844" t="b">
         <v>1</v>
       </c>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>917</v>
       </c>
       <c r="I1844" t="inlineStr">
         <is>
@@ -77575,10 +77467,8 @@
       <c r="G1845" t="b">
         <v>1</v>
       </c>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>917</v>
       </c>
       <c r="I1845" t="inlineStr">
         <is>
@@ -77617,10 +77507,8 @@
       <c r="G1846" t="b">
         <v>1</v>
       </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>917</v>
       </c>
       <c r="I1846" t="inlineStr">
         <is>
@@ -77659,10 +77547,8 @@
       <c r="G1847" t="b">
         <v>1</v>
       </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>917</v>
       </c>
       <c r="I1847" t="inlineStr">
         <is>
@@ -77701,10 +77587,8 @@
       <c r="G1848" t="b">
         <v>1</v>
       </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>917</v>
       </c>
       <c r="I1848" t="inlineStr">
         <is>
@@ -77743,10 +77627,8 @@
       <c r="G1849" t="b">
         <v>1</v>
       </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>917</v>
       </c>
       <c r="I1849" t="inlineStr">
         <is>
@@ -77785,10 +77667,8 @@
       <c r="G1850" t="b">
         <v>1</v>
       </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>917</v>
       </c>
       <c r="I1850" t="inlineStr">
         <is>
@@ -77827,10 +77707,8 @@
       <c r="G1851" t="b">
         <v>1</v>
       </c>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>917</v>
       </c>
       <c r="I1851" t="inlineStr">
         <is>
@@ -77869,10 +77747,8 @@
       <c r="G1852" t="b">
         <v>1</v>
       </c>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>917</v>
       </c>
       <c r="I1852" t="inlineStr">
         <is>
@@ -77911,10 +77787,8 @@
       <c r="G1853" t="b">
         <v>1</v>
       </c>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>917</v>
       </c>
       <c r="I1853" t="inlineStr">
         <is>
@@ -77953,10 +77827,8 @@
       <c r="G1854" t="b">
         <v>1</v>
       </c>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>917</v>
       </c>
       <c r="I1854" t="inlineStr">
         <is>
@@ -77995,10 +77867,8 @@
       <c r="G1855" t="b">
         <v>1</v>
       </c>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>917</v>
       </c>
       <c r="I1855" t="inlineStr">
         <is>
@@ -78037,10 +77907,8 @@
       <c r="G1856" t="b">
         <v>1</v>
       </c>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>917</v>
       </c>
       <c r="I1856" t="inlineStr">
         <is>
@@ -78079,10 +77947,8 @@
       <c r="G1857" t="b">
         <v>1</v>
       </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>917</v>
       </c>
       <c r="I1857" t="inlineStr">
         <is>
@@ -78121,10 +77987,8 @@
       <c r="G1858" t="b">
         <v>1</v>
       </c>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>917</v>
       </c>
       <c r="I1858" t="inlineStr">
         <is>
@@ -78163,10 +78027,8 @@
       <c r="G1859" t="b">
         <v>1</v>
       </c>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>917</v>
       </c>
       <c r="I1859" t="inlineStr">
         <is>
@@ -78205,10 +78067,8 @@
       <c r="G1860" t="b">
         <v>1</v>
       </c>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>917</v>
       </c>
       <c r="I1860" t="inlineStr">
         <is>
@@ -78247,10 +78107,8 @@
       <c r="G1861" t="b">
         <v>1</v>
       </c>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>917</v>
       </c>
       <c r="I1861" t="inlineStr">
         <is>
@@ -78289,10 +78147,8 @@
       <c r="G1862" t="b">
         <v>1</v>
       </c>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>917</v>
       </c>
       <c r="I1862" t="inlineStr">
         <is>
@@ -78667,10 +78523,8 @@
       <c r="G1871" t="b">
         <v>1</v>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>917</v>
       </c>
       <c r="I1871" t="inlineStr">
         <is>
@@ -78709,10 +78563,8 @@
       <c r="G1872" t="b">
         <v>1</v>
       </c>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>917</v>
       </c>
       <c r="I1872" t="inlineStr">
         <is>
@@ -78751,10 +78603,8 @@
       <c r="G1873" t="b">
         <v>1</v>
       </c>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>917</v>
       </c>
       <c r="I1873" t="inlineStr">
         <is>
@@ -78793,10 +78643,8 @@
       <c r="G1874" t="b">
         <v>1</v>
       </c>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>917</v>
       </c>
       <c r="I1874" t="inlineStr">
         <is>
@@ -78835,10 +78683,8 @@
       <c r="G1875" t="b">
         <v>1</v>
       </c>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>917</v>
       </c>
       <c r="I1875" t="inlineStr">
         <is>
@@ -78877,10 +78723,8 @@
       <c r="G1876" t="b">
         <v>1</v>
       </c>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>917</v>
       </c>
       <c r="I1876" t="inlineStr">
         <is>
@@ -78919,10 +78763,8 @@
       <c r="G1877" t="b">
         <v>1</v>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>917</v>
       </c>
       <c r="I1877" t="inlineStr">
         <is>
@@ -78961,10 +78803,8 @@
       <c r="G1878" t="b">
         <v>1</v>
       </c>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>917</v>
       </c>
       <c r="I1878" t="inlineStr">
         <is>
@@ -79003,10 +78843,8 @@
       <c r="G1879" t="b">
         <v>1</v>
       </c>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>917</v>
       </c>
       <c r="I1879" t="inlineStr">
         <is>
@@ -79045,10 +78883,8 @@
       <c r="G1880" t="b">
         <v>1</v>
       </c>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>917</v>
       </c>
       <c r="I1880" t="inlineStr">
         <is>
@@ -79087,10 +78923,8 @@
       <c r="G1881" t="b">
         <v>1</v>
       </c>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>917</v>
       </c>
       <c r="I1881" t="inlineStr">
         <is>
@@ -79129,10 +78963,8 @@
       <c r="G1882" t="b">
         <v>1</v>
       </c>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>917</v>
       </c>
       <c r="I1882" t="inlineStr">
         <is>
@@ -79171,10 +79003,8 @@
       <c r="G1883" t="b">
         <v>1</v>
       </c>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>917</v>
       </c>
       <c r="I1883" t="inlineStr">
         <is>
@@ -79213,10 +79043,8 @@
       <c r="G1884" t="b">
         <v>1</v>
       </c>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>vacio</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>917</v>
       </c>
       <c r="I1884" t="inlineStr">
         <is>
@@ -93252,6 +93080,510 @@
         </is>
       </c>
       <c r="J2218" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="inlineStr">
+        <is>
+          <t>ED-2064</t>
+        </is>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>P2C1R2STACK2SW1P19</t>
+        </is>
+      </c>
+      <c r="C2219" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2219" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>19</v>
+      </c>
+      <c r="G2219" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H2219" t="n">
+        <v>917</v>
+      </c>
+      <c r="I2219" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+      <c r="J2219" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="inlineStr">
+        <is>
+          <t>ED-2031</t>
+        </is>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>P2C1R2STACK2SW1P20</t>
+        </is>
+      </c>
+      <c r="C2220" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2220" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2220" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H2220" t="n">
+        <v>917</v>
+      </c>
+      <c r="I2220" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+      <c r="J2220" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="inlineStr">
+        <is>
+          <t>ED-2033</t>
+        </is>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>P2C1R2STACK2SW1P22</t>
+        </is>
+      </c>
+      <c r="C2221" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2221" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H2221" t="n">
+        <v>917</v>
+      </c>
+      <c r="I2221" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+      <c r="J2221" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="inlineStr">
+        <is>
+          <t>ED-2040</t>
+        </is>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>P2C1R2STACK2SW2P10</t>
+        </is>
+      </c>
+      <c r="C2222" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2222" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2222" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H2222" t="n">
+        <v>917</v>
+      </c>
+      <c r="I2222" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+      <c r="J2222" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="inlineStr">
+        <is>
+          <t>ED-2030</t>
+        </is>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>P2C1R2STACK2SW2P16</t>
+        </is>
+      </c>
+      <c r="C2223" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>16</v>
+      </c>
+      <c r="G2223" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H2223" t="n">
+        <v>917</v>
+      </c>
+      <c r="I2223" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+      <c r="J2223" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="inlineStr">
+        <is>
+          <t>ED-2002</t>
+        </is>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>P2C1R2STACK2SW2P31</t>
+        </is>
+      </c>
+      <c r="C2224" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2224" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2224" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2224" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H2224" t="n">
+        <v>917</v>
+      </c>
+      <c r="I2224" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+      <c r="J2224" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="inlineStr">
+        <is>
+          <t>ED-2035</t>
+        </is>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>P2C1R2STACK2SW2P39</t>
+        </is>
+      </c>
+      <c r="C2225" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2225" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>39</v>
+      </c>
+      <c r="G2225" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H2225" t="n">
+        <v>917</v>
+      </c>
+      <c r="I2225" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+      <c r="J2225" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="inlineStr">
+        <is>
+          <t>ED-2037</t>
+        </is>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>P2C1R2STACK2SW2P40</t>
+        </is>
+      </c>
+      <c r="C2226" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2226" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2226" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2226" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H2226" t="n">
+        <v>917</v>
+      </c>
+      <c r="I2226" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+      <c r="J2226" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="inlineStr">
+        <is>
+          <t>ED-2039</t>
+        </is>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>P2C1R2STACK2SW2P41</t>
+        </is>
+      </c>
+      <c r="C2227" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2227" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>41</v>
+      </c>
+      <c r="G2227" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H2227" t="n">
+        <v>917</v>
+      </c>
+      <c r="I2227" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+      <c r="J2227" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="inlineStr">
+        <is>
+          <t>ED-2026</t>
+        </is>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>P2C1R2STACK2SW2P43</t>
+        </is>
+      </c>
+      <c r="C2228" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>43</v>
+      </c>
+      <c r="G2228" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H2228" t="n">
+        <v>917</v>
+      </c>
+      <c r="I2228" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+      <c r="J2228" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="inlineStr">
+        <is>
+          <t>ED-1992</t>
+        </is>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>P2C2STACK1SW2P01</t>
+        </is>
+      </c>
+      <c r="C2229" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2229" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2229" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2229" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H2229" t="n">
+        <v>917</v>
+      </c>
+      <c r="I2229" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+      <c r="J2229" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="inlineStr">
+        <is>
+          <t>ED-1962</t>
+        </is>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>'P2C2STACK1SW2P16</t>
+        </is>
+      </c>
+      <c r="C2230" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2230" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2230" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>16</v>
+      </c>
+      <c r="G2230" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H2230" t="n">
+        <v>917</v>
+      </c>
+      <c r="I2230" t="inlineStr">
+        <is>
+          <t>No activo</t>
+        </is>
+      </c>
+      <c r="J2230" t="inlineStr">
         <is>
           <t>No activo</t>
         </is>
